--- a/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A30748-D5E5-4B2D-98CF-5A07A7348FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B87F445-2F4D-44DC-84D8-A381235C048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D181DFD2-F823-447D-8E3A-D577C1DAD7DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0028A6BB-E9E0-4B76-915F-977F1CFEDCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>32,58%</t>
   </si>
   <si>
-    <t>83,57%</t>
+    <t>83,75%</t>
   </si>
   <si>
     <t>48,27%</t>
@@ -131,7 +131,7 @@
     <t>37,03%</t>
   </si>
   <si>
-    <t>83,63%</t>
+    <t>84,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>25,03%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>41,15%</t>
@@ -170,16 +170,16 @@
     <t>17,83%</t>
   </si>
   <si>
-    <t>51,43%</t>
+    <t>52,41%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>27,77%</t>
@@ -191,19 +191,19 @@
     <t>57,14%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,79 +212,79 @@
     <t>54,55%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>44,76%</t>
+    <t>42,84%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,76 +293,76 @@
     <t>74,04%</t>
   </si>
   <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>34,37%</t>
+    <t>32,49%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>58,09%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -371,10 +371,10 @@
     <t>72,19%</t>
   </si>
   <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>51,81%</t>
@@ -389,19 +389,19 @@
     <t>63,68%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>10,54%</t>
@@ -416,19 +416,19 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>37,66%</t>
@@ -446,88 +446,88 @@
     <t>14,71%</t>
   </si>
   <si>
-    <t>35,29%</t>
+    <t>34,95%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C83AC-6B70-403E-81F1-239D1266F4CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D5B85A-D887-4A40-9233-D96467C43440}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B87F445-2F4D-44DC-84D8-A381235C048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB698D3F-A324-42EC-96C7-6F854D4DC736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0028A6BB-E9E0-4B76-915F-977F1CFEDCE6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A917A212-1A75-4C70-B4D0-20FE47E4C054}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D5B85A-D887-4A40-9233-D96467C43440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625254B0-3DB3-4E25-8791-91FCDE10C272}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB698D3F-A324-42EC-96C7-6F854D4DC736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FC7D7E-7D74-4F2B-912F-020A539F704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A917A212-1A75-4C70-B4D0-20FE47E4C054}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3C64762-FE81-4AB1-805D-E65EC07667C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>32,58%</t>
   </si>
   <si>
-    <t>83,75%</t>
+    <t>83,57%</t>
   </si>
   <si>
     <t>48,27%</t>
@@ -131,7 +131,7 @@
     <t>37,03%</t>
   </si>
   <si>
-    <t>84,36%</t>
+    <t>83,63%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>25,03%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>41,15%</t>
@@ -170,16 +170,16 @@
     <t>17,83%</t>
   </si>
   <si>
-    <t>52,41%</t>
+    <t>51,43%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>27,77%</t>
@@ -191,19 +191,19 @@
     <t>57,14%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,79 +212,79 @@
     <t>54,55%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>42,84%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,76 +293,76 @@
     <t>74,04%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>35,11%</t>
+    <t>34,99%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>32,49%</t>
+    <t>34,37%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>58,09%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -371,10 +371,10 @@
     <t>72,19%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>51,81%</t>
@@ -389,19 +389,19 @@
     <t>63,68%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>10,54%</t>
@@ -416,19 +416,19 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>37,66%</t>
@@ -446,88 +446,88 @@
     <t>14,71%</t>
   </si>
   <si>
-    <t>34,95%</t>
+    <t>35,29%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625254B0-3DB3-4E25-8791-91FCDE10C272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F188F-4837-4C2E-8F24-8C6397407934}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FC7D7E-7D74-4F2B-912F-020A539F704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54707A7A-C8E1-47D1-A942-EC385818F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3C64762-FE81-4AB1-805D-E65EC07667C8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FAEBC2B6-77CF-4D4A-B95C-109CFC5EEF82}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -98,28 +98,28 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>53,02%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -128,406 +128,478 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
     <t>34,99%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,8 +1014,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F188F-4837-4C2E-8F24-8C6397407934}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6144BA1E-12F4-4C30-9657-41D8C245D789}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1174,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>17</v>
@@ -1189,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -1223,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
@@ -1238,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>19</v>
@@ -1261,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2458</v>
+        <v>2658</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -1291,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>2459</v>
+        <v>2657</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>23</v>
@@ -1312,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2294</v>
+        <v>2355</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
@@ -1342,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>2294</v>
+        <v>2355</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1378,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2795</v>
+        <v>2698</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
@@ -1393,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2795</v>
+        <v>2698</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4752</v>
+        <v>5013</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1429,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2795</v>
+        <v>2698</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1444,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>7547</v>
+        <v>7710</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1467,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1571</v>
+        <v>1521</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>33</v>
@@ -1482,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2180</v>
+        <v>2010</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>35</v>
@@ -1497,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>3750</v>
+        <v>3531</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1518,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2080</v>
+        <v>2111</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -1533,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1553</v>
+        <v>1411</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>43</v>
@@ -1548,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3632</v>
+        <v>3522</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -1569,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1404</v>
+        <v>1355</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>48</v>
@@ -1584,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>4976</v>
+        <v>4711</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>50</v>
@@ -1599,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>6379</v>
+        <v>6066</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
@@ -1620,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5054</v>
+        <v>4987</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1635,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>8708</v>
+        <v>8132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1650,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>13762</v>
+        <v>13119</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1673,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8049</v>
+        <v>7595</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
@@ -1688,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>4703</v>
+        <v>4340</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>60</v>
@@ -1703,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>12752</v>
+        <v>11935</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
@@ -1724,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>4530</v>
+        <v>4497</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -1739,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3268</v>
+        <v>3090</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -1754,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>7798</v>
+        <v>7587</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>72</v>
@@ -1775,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2175</v>
+        <v>2149</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>75</v>
@@ -1790,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>5545</v>
+        <v>5182</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>77</v>
@@ -1805,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>7720</v>
+        <v>7331</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>80</v>
@@ -1826,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>14754</v>
+        <v>14241</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1841,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>13516</v>
+        <v>12612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -1856,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>28270</v>
+        <v>26853</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1879,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>13539</v>
+        <v>12788</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -1894,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3089</v>
+        <v>2874</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>87</v>
@@ -1909,7 +1981,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>16628</v>
+        <v>15663</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>90</v>
@@ -1930,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>2085</v>
+        <v>1955</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>93</v>
@@ -1945,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>693</v>
+        <v>640</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>95</v>
@@ -1960,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2778</v>
+        <v>2595</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>97</v>
@@ -1981,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2663</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
@@ -1996,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>5243</v>
+        <v>4950</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>103</v>
@@ -2011,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>7906</v>
+        <v>7449</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>106</v>
@@ -2032,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>18287</v>
+        <v>17243</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -2047,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>9025</v>
+        <v>8464</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>19</v>
@@ -2062,7 +2134,7 @@
         <v>37</v>
       </c>
       <c r="N23" s="7">
-        <v>27311</v>
+        <v>25707</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>19</v>
@@ -2082,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>16153</v>
+        <v>11942</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>110</v>
@@ -2097,10 +2169,10 @@
         <v>112</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>8318</v>
+        <v>3733</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>113</v>
@@ -2112,10 +2184,10 @@
         <v>115</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>24472</v>
+        <v>15675</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>116</v>
@@ -2133,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3446</v>
+        <v>1699</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>119</v>
@@ -2148,34 +2220,34 @@
         <v>121</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1692</v>
+        <v>358</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2058</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="7">
-        <v>10</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5137</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2256,49 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2777</v>
+        <v>988</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>650</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="7">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6046</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1638</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M26" s="7">
-        <v>17</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8823</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,40 +2307,40 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7">
+        <v>14629</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4742</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>34</v>
       </c>
-      <c r="D27" s="7">
-        <v>22376</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>31</v>
-      </c>
-      <c r="I27" s="7">
-        <v>16056</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>65</v>
-      </c>
       <c r="N27" s="7">
-        <v>38432</v>
+        <v>19371</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2282,55 +2354,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>41770</v>
+        <v>2967</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>8</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3943</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="7">
-        <v>33</v>
-      </c>
-      <c r="I28" s="7">
-        <v>18290</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>12</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6910</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="7">
-        <v>84</v>
-      </c>
-      <c r="N28" s="7">
-        <v>60060</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2411,49 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>14434</v>
+        <v>1544</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1167</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="7">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7205</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>6</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2711</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="7">
-        <v>27</v>
-      </c>
-      <c r="N29" s="7">
-        <v>21640</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,49 +2462,49 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>9019</v>
+        <v>1653</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4864</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="7">
-        <v>40</v>
-      </c>
-      <c r="I30" s="7">
-        <v>28222</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6518</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="7">
-        <v>51</v>
-      </c>
-      <c r="N30" s="7">
-        <v>37240</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,63 +2513,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6164</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="7">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9974</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="7">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7">
+        <v>16138</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>51</v>
+      </c>
+      <c r="D32" s="7">
+        <v>39471</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="7">
+        <v>33</v>
+      </c>
+      <c r="I32" s="7">
+        <v>16902</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="7">
+        <v>84</v>
+      </c>
+      <c r="N32" s="7">
+        <v>56373</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7">
+        <v>14161</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="7">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6666</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="7">
+        <v>27</v>
+      </c>
+      <c r="N33" s="7">
+        <v>20827</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7">
+        <v>8645</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="7">
+        <v>40</v>
+      </c>
+      <c r="I34" s="7">
+        <v>26275</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="7">
-        <v>65223</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="L34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="7">
+        <v>51</v>
+      </c>
+      <c r="N34" s="7">
+        <v>34920</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7">
+        <v>62277</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7">
         <v>85</v>
       </c>
-      <c r="I31" s="7">
-        <v>53717</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>49843</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="7">
         <v>162</v>
       </c>
-      <c r="N31" s="7">
-        <v>118940</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>164</v>
+      <c r="N35" s="7">
+        <v>112120</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
